--- a/test/Documentos/Casos_de_prueba_etapa.xlsx
+++ b/test/Documentos/Casos_de_prueba_etapa.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ediso\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Espol_2017\enginniering_software2\project_procare\develop\procareWebApp\test\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10092" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clases de equivalencia" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,9 +309,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -319,6 +316,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,197 +648,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="28.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2"/>
+    <col min="1" max="2" width="8.90625" style="2"/>
+    <col min="3" max="3" width="48.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -855,22 +855,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
@@ -878,77 +878,77 @@
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>36</v>
       </c>
@@ -956,77 +956,77 @@
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>54</v>
       </c>
@@ -1034,21 +1034,21 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>22</v>
       </c>
@@ -1058,23 +1058,23 @@
       <c r="C19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>58</v>
       </c>
     </row>
